--- a/UseCase_Description(수정).xlsx
+++ b/UseCase_Description(수정).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\소공\과제 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B2B87D-31EA-4234-9759-F54A5C85F457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D382452C-EE77-4E23-AA8C-D8721958A48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 회원은 자전거 ID, 자전거 제품명을 입력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.1 회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +118,10 @@
   </si>
   <si>
     <t>6.1 시스템 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 관리자는 자전거 ID, 자전거 제품명을 입력한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,10 +284,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -643,7 +643,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3"/>
     </row>
@@ -660,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -723,10 +723,10 @@
     </row>
     <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -735,7 +735,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3"/>
     </row>
@@ -749,10 +749,10 @@
     </row>
     <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -761,7 +761,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="7"/>
     </row>
@@ -778,12 +778,12 @@
         <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3"/>
     </row>
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
